--- a/Der Schokoriegel der Woche.xlsx
+++ b/Der Schokoriegel der Woche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\0 einfache Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A53D39-0F2C-4695-806F-C79445C2D58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F8986-80A5-4D1B-A834-7C0A9AFB09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B6CC807-07E9-4E0D-AAFA-D2CEEA6D4029}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Kottbruder Podcast</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Startzeit</t>
   </si>
   <si>
-    <t>Milkyway</t>
-  </si>
-  <si>
     <t>00:00:43</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>00:19:21</t>
   </si>
   <si>
-    <t>Hanuta</t>
-  </si>
-  <si>
     <t>Endzeit</t>
   </si>
   <si>
@@ -168,6 +162,27 @@
   </si>
   <si>
     <t>00:25:36</t>
+  </si>
+  <si>
+    <t>Toblerone</t>
+  </si>
+  <si>
+    <t>00:05:34</t>
+  </si>
+  <si>
+    <t>00:09:16</t>
+  </si>
+  <si>
+    <t>00:29:19</t>
+  </si>
+  <si>
+    <t>kinder Riegel</t>
+  </si>
+  <si>
+    <t>Milky Way</t>
+  </si>
+  <si>
+    <t>hanuta</t>
   </si>
 </sst>
 </file>
@@ -281,6 +296,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -295,18 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,12 +640,12 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="54" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
@@ -647,36 +662,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="7"/>
       <c r="K3" s="3"/>
     </row>
@@ -694,7 +709,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="H5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="14">
         <f>MAX(F11:F30)</f>
@@ -719,7 +734,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5">
         <f>MAX(G11:G30)</f>
@@ -749,19 +764,19 @@
     <row r="8" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="22"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -771,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
@@ -790,44 +805,44 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="16"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>39</v>
+      <c r="A11" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+      <c r="A12" s="16">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -840,20 +855,20 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -863,20 +878,20 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5">
         <v>7</v>
@@ -886,20 +901,20 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
+      <c r="A15" s="16">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5">
         <v>8</v>
@@ -909,20 +924,20 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="A16" s="16">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="5">
         <v>6</v>
@@ -932,297 +947,321 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="16">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
+      <c r="A18" s="16">
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="16">
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5">
         <v>10</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+      <c r="A20" s="16">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="11"/>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="16">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
+      <c r="A22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
+      <c r="A23" s="16"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+      <c r="A24" s="16"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
+      <c r="A25" s="16"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
+      <c r="A26" s="16"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
+      <c r="A27" s="16"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
+      <c r="A28" s="16"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
+      <c r="A29" s="16"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
+      <c r="A30" s="16"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21"/>
+      <c r="A31" s="16"/>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
+      <c r="A32" s="16"/>
       <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
+      <c r="A33" s="16"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
+      <c r="A34" s="16"/>
       <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
+      <c r="A35" s="16"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
+      <c r="A36" s="16"/>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21"/>
+      <c r="A37" s="16"/>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
+      <c r="A38" s="16"/>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
+      <c r="A39" s="16"/>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
+      <c r="A40" s="16"/>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
+      <c r="A41" s="16"/>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21"/>
+      <c r="A42" s="16"/>
       <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
+      <c r="A43" s="16"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="21"/>
+      <c r="A44" s="16"/>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="21"/>
+      <c r="A45" s="16"/>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
+      <c r="A46" s="16"/>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
+      <c r="A47" s="16"/>
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21"/>
+      <c r="A48" s="16"/>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
+      <c r="A49" s="16"/>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="21"/>
+      <c r="A50" s="16"/>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
+      <c r="A51" s="16"/>
       <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
+      <c r="A52" s="16"/>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="21"/>
+      <c r="A53" s="16"/>
       <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="21"/>
+      <c r="A54" s="16"/>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="21"/>
+      <c r="A55" s="16"/>
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="21"/>
+      <c r="A56" s="16"/>
       <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="21"/>
+      <c r="A57" s="16"/>
       <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="21"/>
+      <c r="A58" s="16"/>
       <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="21"/>
+      <c r="A59" s="16"/>
       <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="21"/>
+      <c r="A60" s="16"/>
       <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21"/>
+      <c r="A61" s="16"/>
       <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="21"/>
+      <c r="A62" s="16"/>
       <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="21"/>
+      <c r="A63" s="16"/>
       <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="21"/>
+      <c r="A64" s="16"/>
       <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="21"/>
+      <c r="A65" s="16"/>
       <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="21"/>
+      <c r="A66" s="16"/>
       <c r="C66" s="11"/>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="21"/>
+      <c r="A67" s="16"/>
       <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="21"/>
+      <c r="A68" s="16"/>
       <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="21"/>
+      <c r="A69" s="16"/>
       <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="21"/>
+      <c r="A70" s="16"/>
       <c r="C70" s="11"/>
     </row>
   </sheetData>

--- a/Der Schokoriegel der Woche.xlsx
+++ b/Der Schokoriegel der Woche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\0 einfache Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F8986-80A5-4D1B-A834-7C0A9AFB09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F320D-B4DE-4837-9F89-7B3AC3613A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B6CC807-07E9-4E0D-AAFA-D2CEEA6D4029}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Kottbruder Podcast</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>hanuta</t>
+  </si>
+  <si>
+    <t>00:31:24</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,9 @@
       <c r="C20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>

--- a/Der Schokoriegel der Woche.xlsx
+++ b/Der Schokoriegel der Woche.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\0 einfache Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\20 Podcasts\Kottbruder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F320D-B4DE-4837-9F89-7B3AC3613A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FAA18F-9809-475B-BD84-2010C69728C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B6CC807-07E9-4E0D-AAFA-D2CEEA6D4029}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Kottbruder Podcast</t>
   </si>
@@ -89,9 +111,6 @@
     <t>Manuels Nase wurde operiert</t>
   </si>
   <si>
-    <t>Bewertung von 1 bis 10</t>
-  </si>
-  <si>
     <t>Startzeit</t>
   </si>
   <si>
@@ -104,9 +123,6 @@
     <t>00:10:16</t>
   </si>
   <si>
-    <t>Plutens bester Schokoriegel:</t>
-  </si>
-  <si>
     <t>Germanletsplays bester Schokoriegel:</t>
   </si>
   <si>
@@ -186,13 +202,34 @@
   </si>
   <si>
     <t>00:31:24</t>
+  </si>
+  <si>
+    <t>Manuel hasst Elon Musk</t>
+  </si>
+  <si>
+    <t>00:23:34</t>
+  </si>
+  <si>
+    <t>PiCK UP!</t>
+  </si>
+  <si>
+    <t>00:29:59</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Palutens bester Schokoriegel:</t>
+  </si>
+  <si>
+    <t>Bewertung von 1 bis 10 (-1 entspricht keiner Meinung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +265,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,9 +345,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -299,9 +357,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,9 +366,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,6 +376,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -643,209 +713,233 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="54" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="38" style="3" customWidth="1"/>
     <col min="7" max="7" width="49.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="5" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" style="5"/>
     <col min="15" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="7"/>
-      <c r="K3" s="3"/>
+      <c r="G3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="13">
+        <f>MAX(F11:F30)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>INDEX(E11:E30,MATCH(H3,F11:F30,0))</f>
+        <v>Tender (Milch)</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>IF(COUNTIF(F11:F29,H3)&gt;=2,"und","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f>IF(COUNTIF(F12:F30,H3)&gt;=2,IF(H3=F30,E30,IF(H3=F29,E29,IF(H3=F28,E28,IF(H3=F27,E27,IF(H3=F26,E26,IF(H3=F25,E25,IF(H3=F24,E24,IF(H3=F23,E23,IF(H3=F22,E22,IF(H3=F21,E21,IF(H3=F20,E20,IF(H3=F19,E19,IF(H3=F18,E18,IF(H3=F17,E17,IF(H3=F16,E16,IF(H3=F15,E15,IF(H3=F14,E14,IF(H3=F13,E13,IF(H3=F12,E12))))))))))))))))))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="K4" s="3"/>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <f>MAX(G11:G30)</f>
+        <v>9.5</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>INDEX(E12:E30,MATCH(H4,G12:G30,0))</f>
+        <v>Snickers</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f>IF(COUNTIF(G12:G30,H4)&gt;=2,"und","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f>IF(COUNTIF(G12:G30,H4)&gt;=2,IF(H4=G30,E30,IF(H4=G29,E29,IF(H4=G28,E28,IF(H4=G27,E27,IF(H4=G26,E26,IF(H4=G25,E25,IF(H4=G24,E24,IF(H4=G23,E23,IF(H4=G22,E22,IF(H4=G21,E21,IF(H4=G20,E20,IF(H4=G19,E19,IF(H4=G18,E18,IF(H4=G17,E17,IF(H4=G16,E16,IF(H4=G15,E15,IF(H4=G14,E14,IF(H4=G13,E13,IF(H4=G12,E12))))))))))))))))))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" s="3"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="H5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="14">
-        <f>MAX(F11:F30)</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f>INDEX(E11:E30,MATCH(I5,F11:F30,0))</f>
-        <v>Tender (Milch)</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f>IF(COUNTIF(F11:F29,I5)&gt;=2,"und","")</f>
-        <v/>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f>IF(COUNTIF(F12:F30,I5)&gt;=2,IF(I5=F30,E30,IF(I5=F29,E29,IF(I5=F28,E28,IF(I5=F27,E27,IF(I5=F26,E26,IF(I5=F25,E25,IF(I5=F24,E24,IF(I5=F23,E23,IF(I5=F22,E22,IF(I5=F21,E21,IF(I5=F20,E20,IF(I5=F19,E19,IF(I5=F18,E18,IF(I5=F17,E17,IF(I5=F16,E16,IF(I5=F15,E15,IF(I5=F14,E14,IF(I5=F13,E13,IF(I5=F12,E12))))))))))))))))))),"")</f>
-        <v/>
-      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="C6" s="3"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5">
-        <f>MAX(G11:G30)</f>
-        <v>9.5</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f>INDEX(E12:E30,MATCH(I6,G12:G30,0))</f>
-        <v>Snickers</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f>IF(COUNTIF(G12:G30,I6)&gt;=2,"und","")</f>
-        <v/>
-      </c>
-      <c r="L6" s="5" t="str">
-        <f>IF(COUNTIF(G12:G30,I6)&gt;=2,IF(I6=G30,E30,IF(I6=G29,E29,IF(I6=G28,E28,IF(I6=G27,E27,IF(I6=G26,E26,IF(I6=G25,E25,IF(I6=G24,E24,IF(I6=G23,E23,IF(I6=G22,E22,IF(I6=G21,E21,IF(I6=G20,E20,IF(I6=G19,E19,IF(I6=G18,E18,IF(I6=G17,E17,IF(I6=G16,E16,IF(I6=G15,E15,IF(I6=G14,E14,IF(I6=G13,E13,IF(I6=G12,E12))))))))))))))))))),"")</f>
-        <v/>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="str" cm="1">
+        <f t="array" ref="I11:I22">_xlfn.SORTBY(E11:E22,F11:F22,-1)</f>
+        <v>Tender (Milch)</v>
+      </c>
+      <c r="J11" s="5" cm="1">
+        <f t="array" ref="J11:J22">_xlfn._xlws.SORT(F11:F22,1,-1)</f>
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="str" cm="1">
+        <f t="array" ref="K11:K22">_xlfn.SORTBY(E11:E22,G11:G22,-1)</f>
+        <v>Snickers</v>
+      </c>
+      <c r="L11" s="5" cm="1">
+        <f t="array" ref="L11:L22">_xlfn._xlws.SORT(G11:G22,1,-1)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -856,22 +950,37 @@
       <c r="G12" s="5">
         <v>9.5</v>
       </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <v>Snickers</v>
+      </c>
+      <c r="J12" s="5">
+        <v>8</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <v>Twix</v>
+      </c>
+      <c r="L12" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>31</v>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -879,22 +988,37 @@
       <c r="G13" s="5">
         <v>6</v>
       </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <v>hanuta</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <v>Bounty</v>
+      </c>
+      <c r="L13" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>32</v>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5">
         <v>7</v>
@@ -902,22 +1026,37 @@
       <c r="G14" s="5">
         <v>9</v>
       </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <v>Twix</v>
+      </c>
+      <c r="J14" s="5">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <v>Toblerone</v>
+      </c>
+      <c r="L14" s="5">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5">
         <v>8</v>
@@ -925,22 +1064,37 @@
       <c r="G15" s="5">
         <v>6</v>
       </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <v>Bounty</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <v>Milky Way</v>
+      </c>
+      <c r="L15" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>33</v>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
         <v>6</v>
@@ -948,91 +1102,151 @@
       <c r="G16" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="H16" s="5">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <v>kinder Riegel</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <v>hanuta</v>
+      </c>
+      <c r="L16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>36</v>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <v>PiCK UP!</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <v>kinder Riegel</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>36</v>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <v>Milky Way</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="L18" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="G19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>9</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <v>Toblerone</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>49</v>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
@@ -1040,22 +1254,37 @@
       <c r="G20" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -1063,214 +1292,263 @@
       <c r="G21" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="C32" s="11"/>
+      <c r="H21" s="5">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <v>Tender (Milch)</v>
+      </c>
+      <c r="L21" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <v>PiCK UP!</v>
+      </c>
+      <c r="L22" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="14"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="14"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="14"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="14"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="14"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="14"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="C52" s="11"/>
+      <c r="A52" s="14"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="14"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="14"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="14"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="14"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="14"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="14"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="14"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="14"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="14"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="14"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
-      <c r="C63" s="11"/>
+      <c r="A63" s="14"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="14"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="14"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="C66" s="11"/>
+      <c r="A66" s="14"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="C67" s="11"/>
+      <c r="A67" s="14"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="16"/>
-      <c r="C68" s="11"/>
+      <c r="A68" s="14"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="16"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="14"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="14"/>
+      <c r="C70" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
